--- a/m33333.xlsx
+++ b/m33333.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DQs\Aug 2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\solve\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="sheet 1" sheetId="1" r:id="rId1"/>
@@ -5403,26 +5403,26 @@
       <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" style="11" customWidth="1"/>
-    <col min="2" max="3" width="4.54296875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="5.1796875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="40.453125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="11" customWidth="1"/>
+    <col min="2" max="3" width="4.5703125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="40.42578125" style="11" customWidth="1"/>
     <col min="8" max="8" width="19" style="11" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="17.26953125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="16.1796875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="8.1796875" style="11" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" style="11" customWidth="1"/>
-    <col min="14" max="14" width="7.54296875" style="11" customWidth="1"/>
-    <col min="15" max="15" width="6.26953125" style="11" customWidth="1"/>
-    <col min="16" max="16384" width="11.54296875" style="11"/>
+    <col min="9" max="9" width="17.42578125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="11" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="11" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" style="11" customWidth="1"/>
+    <col min="16" max="16384" width="11.5703125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="203" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="210" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="174" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="180" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="159.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="165" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="130.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="135" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="116" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="120" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="116" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="120" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>1</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="188.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="195" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="159.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="165" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="188.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="195" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>1</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="87" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="90" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>1</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="116" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="120" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>1</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="188.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="195" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>1</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="101.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="105" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>1</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="232" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="240" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>1</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="130.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="135" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>1</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="159.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="165" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="101.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="105" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>1</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="101.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="105" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>1</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="87" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="90" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="130.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="135" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>1</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="101.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="105" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>1</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="87" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="90" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="72.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="75" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>1</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>1</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>1</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="188.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="195" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>1</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="203" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="210" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>1</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="87" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="90" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>1</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="261" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="300" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>1</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="261" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="300" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>1</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="130.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="135" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>1</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>1</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="58" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="60" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>1</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="304.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="315" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>1</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="188.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="210" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>1</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="72.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="75" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>1</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="232" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="240" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>1</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="246.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="255" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>1</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="130.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="135" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>1</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="72.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="75" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>1</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="203" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="225" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>1</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="145" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="150" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>1</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="217.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="225" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>1</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="188.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="195" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>1</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="188.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="195" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>1</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="101.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="105" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>1</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="116" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="120" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>1</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="145" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="150" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>1</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="101.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="120" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>1</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="116" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="120" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>1</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="116" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="120" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>1</v>
       </c>
